--- a/service_etl.xlsx
+++ b/service_etl.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="39">
   <si>
     <t>id</t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>Статус загрузки</t>
+  </si>
+  <si>
+    <t>field_increment</t>
+  </si>
+  <si>
+    <t>varchar(20) null</t>
+  </si>
+  <si>
+    <t>поле, по которому делается инкремент</t>
   </si>
 </sst>
 </file>
@@ -469,10 +478,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,23 +559,34 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>21</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
     </row>
@@ -580,7 +600,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
